--- a/Glass Manufacturing Data.xlsx
+++ b/Glass Manufacturing Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD917FD-CBFD-441A-A7B9-D14D5C450C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DC9C19-63D3-4169-9D16-01D39B1DECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DD</t>
   </si>
@@ -76,9 +76,6 @@
   <si>
     <t>Process_data</t>
   </si>
-  <si>
-    <t>4 * 8</t>
-  </si>
 </sst>
 </file>
 
@@ -86,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -136,22 +133,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -173,17 +159,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -211,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,34 +204,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,7 +506,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,19 +543,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <f>G2*0.25</f>
         <v>0.75</v>
       </c>
       <c r="D2" s="3">
-        <f>G2*1.8</f>
-        <v>5.4</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E2" s="3">
-        <f>G2*2.7</f>
-        <v>8.1000000000000014</v>
+        <v>8.1000000000000013E-3</v>
       </c>
       <c r="F2" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
@@ -606,19 +566,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C9" si="0">G3*0.25</f>
         <v>1.5</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="1">G3*1.8</f>
-        <v>10.8</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E9" si="2">G3*2.7</f>
-        <v>16.200000000000003</v>
+        <v>1.6200000000000003E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="3">
         <v>6</v>
@@ -632,19 +589,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
-        <v>32.4</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="2"/>
-        <v>48.6</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <v>18</v>
@@ -658,19 +612,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>21.6</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="2"/>
-        <v>32.400000000000006</v>
+        <v>3.2400000000000005E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="G5" s="3">
         <v>12</v>
@@ -684,16 +635,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -710,19 +658,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <v>15</v>
@@ -736,19 +681,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>14.4</v>
+        <v>1.4400000000000001E-2</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>21.6</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <v>8</v>
@@ -762,19 +704,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="3">
         <v>10</v>
@@ -790,7 +729,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -826,14 +765,14 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>180000</v>
+      <c r="B2" s="12">
+        <v>180</v>
       </c>
       <c r="C2" s="6">
         <v>900</v>
       </c>
-      <c r="D2" s="15">
-        <v>3000</v>
+      <c r="D2" s="11">
+        <v>3</v>
       </c>
       <c r="E2" s="5">
         <v>9</v>
@@ -841,7 +780,7 @@
       <c r="F2" s="5">
         <v>14</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="5">
         <v>48</v>
       </c>
     </row>
@@ -849,14 +788,14 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>125000</v>
+      <c r="B3" s="12">
+        <v>125</v>
       </c>
       <c r="C3" s="6">
         <v>720</v>
       </c>
-      <c r="D3" s="15">
-        <v>7000</v>
+      <c r="D3" s="11">
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>6</v>
@@ -864,7 +803,7 @@
       <c r="F3" s="5">
         <v>21</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="5">
         <v>36</v>
       </c>
     </row>
@@ -872,14 +811,14 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
-        <v>90000</v>
+      <c r="B4" s="12">
+        <v>90</v>
       </c>
       <c r="C4" s="6">
         <v>660</v>
       </c>
-      <c r="D4" s="15">
-        <v>9000</v>
+      <c r="D4" s="11">
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -887,7 +826,7 @@
       <c r="F4" s="5">
         <v>28</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="5">
         <v>27</v>
       </c>
     </row>
@@ -895,14 +834,14 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
-        <v>45000</v>
+      <c r="B5" s="12">
+        <v>45</v>
       </c>
       <c r="C5" s="5">
         <v>480</v>
       </c>
-      <c r="D5" s="15">
-        <v>12000</v>
+      <c r="D5" s="11">
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -915,30 +854,28 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="7">
+        <v>48</v>
+      </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7">
         <v>27</v>
       </c>
-      <c r="F10" s="8">
+      <c r="E10" s="8">
         <v>18</v>
       </c>
-      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="B11" s="9">
+        <v>25</v>
       </c>
       <c r="C11" s="9">
         <v>25</v>
@@ -946,18 +883,11 @@
       <c r="D11" s="9">
         <v>25</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>25</v>
       </c>
-      <c r="F11" s="10">
-        <v>25</v>
-      </c>
-      <c r="G11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:A11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -966,1023 +896,1023 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5105024-7235-43AC-B8C7-FDD1B1851EE4}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="11.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>6.2931772096954601</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="5">
+        <v>6.29</v>
+      </c>
+      <c r="C2" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>9.0794235511847603</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="5">
+        <v>9.08</v>
+      </c>
+      <c r="C3" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>9.0237765652723692</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="C4" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>8.3425372957691497</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="5">
+        <v>8.34</v>
+      </c>
+      <c r="C5" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>1.3230062705516701</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>7.2258182358299496</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="5">
+        <v>7.23</v>
+      </c>
+      <c r="C7" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>4.4081284780486696</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="5">
+        <v>4.41</v>
+      </c>
+      <c r="C8" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>6.9215631900293104</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="5">
+        <v>6.92</v>
+      </c>
+      <c r="C9" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>2.7446519609465301</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="C10" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>3.45084761859925</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="C11" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>7.4674534024104897</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="5">
+        <v>7.47</v>
+      </c>
+      <c r="C12" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>8.0470324851310906</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="C13" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>8.6529487579749507</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="5">
+        <v>8.65</v>
+      </c>
+      <c r="C14" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
-        <v>7.9772040459492599</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="5">
+        <v>7.98</v>
+      </c>
+      <c r="C15" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>1.3299787577897699</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="C16" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>2.0502436161960498</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C17" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
-        <v>7.7615262953892996</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="C18" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
-        <v>3.15296394579648</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="C19" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
-        <v>3.2932541254793199</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="C20" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <v>8.7186297805278592</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="5">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C21" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>9.5480112350287207</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="5">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="C22" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>2.6090246786497802</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="5">
+        <v>2.61</v>
+      </c>
+      <c r="C23" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>7.9322673982455996</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="5">
+        <v>7.93</v>
+      </c>
+      <c r="C24" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
-        <v>5.4314293565309404</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="5">
+        <v>5.43</v>
+      </c>
+      <c r="C25" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
-        <v>6.6812775900719004</v>
-      </c>
-      <c r="C26" s="11">
+      <c r="B26" s="5">
+        <v>6.68</v>
+      </c>
+      <c r="C26" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
-        <v>8.5554813062233492</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="B27" s="5">
+        <v>8.56</v>
+      </c>
+      <c r="C27" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>5.1493545666318701</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="5">
+        <v>5.15</v>
+      </c>
+      <c r="C28" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
-        <v>5.48146065976574</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="C29" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>7.1147000579792499</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="5">
+        <v>7.11</v>
+      </c>
+      <c r="C30" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>6.8570732271099697</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="5">
+        <v>6.86</v>
+      </c>
+      <c r="C31" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>3.4191571486991799</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="C32" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
-        <v>1.60592200245115</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="C33" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>7.9430062452270596</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="5">
+        <v>7.94</v>
+      </c>
+      <c r="C34" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
-        <v>5.3288571906968096</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="B35" s="5">
+        <v>5.33</v>
+      </c>
+      <c r="C35" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
-        <v>3.9628576696028199</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="C36" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="11">
-        <v>5.5957695055763601</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="C37" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="11">
-        <v>3.37265945794051</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B38" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="C38" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="11">
-        <v>3.7946039504166702</v>
-      </c>
-      <c r="C39" s="11">
+      <c r="B39" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="C39" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
-        <v>6.6416809394471503</v>
-      </c>
-      <c r="C40" s="11">
+      <c r="B40" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="C40" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
-        <v>3.8672160362182102</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="5">
+        <v>3.87</v>
+      </c>
+      <c r="C41" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="11">
-        <v>4.5535889877258402</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="B42" s="5">
+        <v>4.55</v>
+      </c>
+      <c r="C42" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
-        <v>3.32177127278666</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="B43" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="C43" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
-        <v>2.4546583939940798</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="B44" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C44" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
-        <v>6.3832043778851704</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="5">
+        <v>6.38</v>
+      </c>
+      <c r="C45" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
-        <v>8.4324121953040905</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B46" s="5">
+        <v>8.43</v>
+      </c>
+      <c r="C46" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
-        <v>2.40752546659852</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B47" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="C47" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="11">
-        <v>7.6087046738534703</v>
-      </c>
-      <c r="C48" s="11">
+      <c r="B48" s="5">
+        <v>7.61</v>
+      </c>
+      <c r="C48" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
-        <v>4.6777908887094002</v>
-      </c>
-      <c r="C49" s="11">
+      <c r="B49" s="5">
+        <v>4.68</v>
+      </c>
+      <c r="C49" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="11">
-        <v>8.0081911392699698</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="5">
+        <v>8.01</v>
+      </c>
+      <c r="C50" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
-        <v>8.2357351084990693</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="B51" s="5">
+        <v>8.24</v>
+      </c>
+      <c r="C51" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="11">
-        <v>8.0746429917416496</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B52" s="5">
+        <v>8.07</v>
+      </c>
+      <c r="C52" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="11">
-        <v>6.3305831679023097</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B53" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="C53" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
-        <v>6.9804028254304296</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B54" s="5">
+        <v>6.98</v>
+      </c>
+      <c r="C54" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="11">
-        <v>6.8191055809804801</v>
-      </c>
-      <c r="C55" s="11">
+      <c r="B55" s="5">
+        <v>6.82</v>
+      </c>
+      <c r="C55" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="11">
-        <v>4.8307283106764496</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="5">
+        <v>4.83</v>
+      </c>
+      <c r="C56" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="11">
-        <v>5.5113205934448697</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="B57" s="5">
+        <v>5.51</v>
+      </c>
+      <c r="C57" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
-        <v>1.3337542982691899</v>
-      </c>
-      <c r="C58" s="11">
+      <c r="B58" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="C58" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
-        <v>7.3730448566336202</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="B59" s="5">
+        <v>7.37</v>
+      </c>
+      <c r="C59" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="11">
-        <v>6.5838754019530796</v>
-      </c>
-      <c r="C60" s="11">
+      <c r="B60" s="5">
+        <v>6.58</v>
+      </c>
+      <c r="C60" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="11">
-        <v>8.0002768115551799</v>
-      </c>
-      <c r="C61" s="11">
+      <c r="B61" s="5">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="11">
-        <v>5.1346851908309104</v>
-      </c>
-      <c r="C62" s="11">
+      <c r="B62" s="5">
+        <v>5.13</v>
+      </c>
+      <c r="C62" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="11">
-        <v>4.41824999232277</v>
-      </c>
-      <c r="C63" s="11">
+      <c r="B63" s="5">
+        <v>4.42</v>
+      </c>
+      <c r="C63" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="11">
-        <v>3.6270298319834899</v>
-      </c>
-      <c r="C64" s="11">
+      <c r="B64" s="5">
+        <v>3.63</v>
+      </c>
+      <c r="C64" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="11">
-        <v>1.7574724152777901</v>
-      </c>
-      <c r="C65" s="11">
+      <c r="B65" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="C65" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="11">
-        <v>6.6815350222964103</v>
-      </c>
-      <c r="C66" s="11">
+      <c r="B66" s="5">
+        <v>6.68</v>
+      </c>
+      <c r="C66" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="11">
-        <v>9.5011343912833102</v>
-      </c>
-      <c r="C67" s="11">
+      <c r="B67" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="C67" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="11">
-        <v>9.0211378144576404</v>
-      </c>
-      <c r="C68" s="11">
+      <c r="B68" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="C68" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="11">
-        <v>8.9072432178705192</v>
-      </c>
-      <c r="C69" s="11">
+      <c r="B69" s="5">
+        <v>8.91</v>
+      </c>
+      <c r="C69" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="11">
-        <v>4.1027646430629501</v>
-      </c>
-      <c r="C70" s="11">
+      <c r="B70" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C70" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="11">
-        <v>5.7460384426139601</v>
-      </c>
-      <c r="C71" s="11">
+      <c r="B71" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="C71" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="11">
-        <v>6.9338526002251202</v>
-      </c>
-      <c r="C72" s="11">
+      <c r="B72" s="5">
+        <v>6.93</v>
+      </c>
+      <c r="C72" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="11">
-        <v>3.4146157030759201</v>
-      </c>
-      <c r="C73" s="11">
+      <c r="B73" s="5">
+        <v>3.41</v>
+      </c>
+      <c r="C73" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="11">
-        <v>6.4699037147645804</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="B74" s="5">
+        <v>6.47</v>
+      </c>
+      <c r="C74" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="11">
-        <v>1.4334163301315701</v>
-      </c>
-      <c r="C75" s="11">
+      <c r="B75" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="C75" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="11">
-        <v>7.2595057548189397</v>
-      </c>
-      <c r="C76" s="11">
+      <c r="B76" s="5">
+        <v>7.26</v>
+      </c>
+      <c r="C76" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="11">
-        <v>3.69344689886224</v>
-      </c>
-      <c r="C77" s="11">
+      <c r="B77" s="5">
+        <v>3.69</v>
+      </c>
+      <c r="C77" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="11">
-        <v>2.4907199941567999</v>
-      </c>
-      <c r="C78" s="11">
+      <c r="B78" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C78" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="11">
-        <v>3.9902674611095801</v>
-      </c>
-      <c r="C79" s="11">
+      <c r="B79" s="5">
+        <v>3.99</v>
+      </c>
+      <c r="C79" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="11">
-        <v>2.4889397095479699</v>
-      </c>
-      <c r="C80" s="11">
+      <c r="B80" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C80" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="11">
-        <v>9.2317418290208693</v>
-      </c>
-      <c r="C81" s="11">
+      <c r="B81" s="5">
+        <v>9.23</v>
+      </c>
+      <c r="C81" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="11">
-        <v>3.55622505328187</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="B82" s="5">
+        <v>3.56</v>
+      </c>
+      <c r="C82" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="11">
-        <v>1.9684653835661301</v>
-      </c>
-      <c r="C83" s="11">
+      <c r="B83" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="C83" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="11">
-        <v>2.0530159320942998</v>
-      </c>
-      <c r="C84" s="11">
+      <c r="B84" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C84" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="11">
-        <v>7.7997123891617202</v>
-      </c>
-      <c r="C85" s="11">
+      <c r="B85" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="C85" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="11">
-        <v>8.5500501237627393</v>
-      </c>
-      <c r="C86" s="11">
+      <c r="B86" s="5">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="C86" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="11">
-        <v>1.3198332400435699</v>
-      </c>
-      <c r="C87" s="11">
+      <c r="B87" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="C87" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="11">
-        <v>2.0929939282067198</v>
-      </c>
-      <c r="C88" s="11">
+      <c r="B88" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="C88" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="11">
-        <v>9.0190724955728694</v>
-      </c>
-      <c r="C89" s="11">
+      <c r="B89" s="5">
+        <v>9.02</v>
+      </c>
+      <c r="C89" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="11">
-        <v>9.3197711046579492</v>
-      </c>
-      <c r="C90" s="11">
+      <c r="B90" s="5">
+        <v>9.32</v>
+      </c>
+      <c r="C90" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="11">
-        <v>7.9593074857576296</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="B91" s="5">
+        <v>7.96</v>
+      </c>
+      <c r="C91" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="11">
-        <v>4.8040920491046002</v>
-      </c>
-      <c r="C92" s="11">
+      <c r="B92" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C92" s="5">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
